--- a/biology/Botanique/Herbarius_moguntinus/Herbarius_moguntinus.xlsx
+++ b/biology/Botanique/Herbarius_moguntinus/Herbarius_moguntinus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'Herbarius moguntinus (Herbier de Mayence), ou (selon la préface) Aggregator practicus de simplicibus (Agrégateur pratiques de simples), est un herbier rédigé en latin, édité et imprimé en 1484  par Peter Schoeffer à Mayence (Moguntia en latin). Avec le Gart der Gesundheit en allemand (Peter Schoeffer, Mayence, 1485) et le Hortus sanitatis (Jacobus Meydenbach, Mayence, 1491), l'Herbarius moguntinus appartient au « groupe des herbiers incunables de Mayence »[1],[2],[3]. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'Herbarius moguntinus (Herbier de Mayence), ou (selon la préface) Aggregator practicus de simplicibus (Agrégateur pratiques de simples), est un herbier rédigé en latin, édité et imprimé en 1484  par Peter Schoeffer à Mayence (Moguntia en latin). Avec le Gart der Gesundheit en allemand (Peter Schoeffer, Mayence, 1485) et le Hortus sanitatis (Jacobus Meydenbach, Mayence, 1491), l'Herbarius moguntinus appartient au « groupe des herbiers incunables de Mayence ». 
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Auteur</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'auteur du livre n'est pas connu avec certitude. Le livre a été attribué à tort à Arnaldus de Villa Nova à la suite d'une mauvaise interprétation de la page de titre d'une réimpression (Vicence, 1491)[4]. Johann Wonnecke von Kaub,  médecin de Francfort, a été proposé comme auteur possible mais non certain[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'auteur du livre n'est pas connu avec certitude. Le livre a été attribué à tort à Arnaldus de Villa Nova à la suite d'une mauvaise interprétation de la page de titre d'une réimpression (Vicence, 1491). Johann Wonnecke von Kaub,  médecin de Francfort, a été proposé comme auteur possible mais non certain.
 </t>
         </is>
       </c>
@@ -542,10 +556,12 @@
           <t>Sources et contenu</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Comme sources primaires, l'auteur de l’Herbarius moguntinus a utilisé des encyclopédies médiévales bien connues, telles que Liber pandectarum medicinae omnia medicine simplicia continens de Matthaeus Silvaticus (XIVe siècle) et Speculum naturale de Vincent de Beauvais (XIIIe siècle)[6],[7],[8]
-La première partie du livre se compose de 150 chapitres, dans lesquels sont décrites les plantes médicinales qui poussent à l'état sauvage ou qui sont cultivées  au  Nord des Alpes. Chaque chapitre de la première partie est illustré par une gravure sur bois de caractère symbolique. La deuxième partie présente, sous une forme abrégée, 96 autres plantes médicinales d'origine indigène et étrangère . Cette deuxième partie n'est pas illustrée[9],[10].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Comme sources primaires, l'auteur de l’Herbarius moguntinus a utilisé des encyclopédies médiévales bien connues, telles que Liber pandectarum medicinae omnia medicine simplicia continens de Matthaeus Silvaticus (XIVe siècle) et Speculum naturale de Vincent de Beauvais (XIIIe siècle)
+La première partie du livre se compose de 150 chapitres, dans lesquels sont décrites les plantes médicinales qui poussent à l'état sauvage ou qui sont cultivées  au  Nord des Alpes. Chaque chapitre de la première partie est illustré par une gravure sur bois de caractère symbolique. La deuxième partie présente, sous une forme abrégée, 96 autres plantes médicinales d'origine indigène et étrangère . Cette deuxième partie n'est pas illustrée,.
 </t>
         </is>
       </c>
@@ -574,7 +590,9 @@
           <t>Exemples de gravures sur bois</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Part. I, chap. 6 Agrimonia eupatoria
@@ -625,19 +643,21 @@
           <t>Éditions et traductions</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Mayence, Peter Schöffer, 1484[11]
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Mayence, Peter Schöffer, 1484
 Spire, anonyme, 1484.
 Louvain, Johann Veldener, Herbarius in Dyetsche, 1484.
-Louvain, Johann Veldener 1485-86[12]
-Leipzig,  Markus Brand 1484[13].
-Passau, anonyme, 1486[14]
-Passau, anonyme, 1486 (nouvelle édition)[15].
+Louvain, Johann Veldener 1485-86
+Leipzig,  Markus Brand 1484.
+Passau, anonyme, 1486
+Passau, anonyme, 1486 (nouvelle édition).
 Paris, anonyme, 1486.
-Vicence, Achates et Gul. Papia 1491[16].
-Venise, Bevilaqua (Simon Papia), 1499[17].
-Venise, Francesco Bindoni et Maffeo Pasini, Herbolario volgare, 1536[18].</t>
+Vicence, Achates et Gul. Papia 1491.
+Venise, Bevilaqua (Simon Papia), 1499.
+Venise, Francesco Bindoni et Maffeo Pasini, Herbolario volgare, 1536.</t>
         </is>
       </c>
     </row>
